--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -9,11 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="商品リスト" sheetId="2" r:id="rId1"/>
+    <sheet name="見積書" sheetId="3" r:id="rId2"/>
+    <sheet name="請求書" sheetId="1" r:id="rId3"/>
+    <sheet name="納品書" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品リスト!$A$1:$C$10</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>請求番号：</t>
     <rPh sb="0" eb="4">
@@ -162,16 +168,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>株式会社XYZプラクティス　様</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>東京都台東区上野x-xx-xx</t>
     <rPh sb="0" eb="3">
       <t>トウキョウト</t>
@@ -185,10 +181,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラウンドテーブル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>OAチェア</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -200,6 +192,173 @@
     <t>折りたたみテーブル</t>
     <rPh sb="0" eb="1">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本体価格</t>
+    <rPh sb="0" eb="4">
+      <t>ホンタイカカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラウンドテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミーティングテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OA]チェア　肘付き</t>
+    <rPh sb="7" eb="8">
+      <t>ヒジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッシュチェア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スチールラック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レターケース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見　積　書</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツモル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納　品　書</t>
+    <rPh sb="0" eb="1">
+      <t>ノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>摘要：</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、お見積もり申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品場所：</t>
+    <rPh sb="0" eb="4">
+      <t>ノウヒンバショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日から30日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社XYZアシスタント　様</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アシスタント様実店舗</t>
+    <rPh sb="6" eb="7">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジツテンポ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -286,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,7 +460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,12 +573,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -448,13 +634,90 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -465,6 +728,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:C10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="注文番号" dataDxfId="0"/>
+    <tableColumn id="2" name="商品名"/>
+    <tableColumn id="3" name="本体価格" dataDxfId="2" dataCellStyle="桁区切り"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,10 +1005,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="23">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="23">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="23">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="23">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="23">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="23">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="23">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="23">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="23">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -744,214 +1153,500 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="A1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="D3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="A3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="6">
         <v>100123</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="D4" s="18">
-        <v>44677</v>
-      </c>
-      <c r="E4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="19">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="E6" s="7" t="s">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="E6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="30">
         <f>E19</f>
         <v>194370</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="B7" s="30"/>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>1001</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A11,テーブル1[],2,FALSE),"")</f>
+        <v>折りたたみテーブル</v>
+      </c>
+      <c r="C11" s="24">
+        <f>IFERROR(VLOOKUP($A11,テーブル1[],3,FALSE),"")</f>
         <v>15900</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="E11" s="14">
-        <f>IF(C11="","",C11*D11)</f>
+      <c r="E11" s="15">
+        <f t="shared" ref="E11:E14" si="0">IFERROR(C11*D11,"")</f>
         <v>31800</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>1002</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[],2,FALSE),"")</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="24">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[],3,FALSE),"")</f>
         <v>19900</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>2</v>
       </c>
-      <c r="E12" s="14">
-        <f t="shared" ref="E12:E16" si="0">IF(C12="","",C12*D12)</f>
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
         <v>39800</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>2001</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[],2,FALSE),"")</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="24">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[],3,FALSE),"")</f>
         <v>9800</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>8</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>78400</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>3002</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[],2,FALSE),"")</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="24">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[],3,FALSE),"")</f>
         <v>26700</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="14" t="str">
-        <f t="shared" si="0"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[],2,FALSE),"")</f>
         <v/>
       </c>
+      <c r="C15" s="24" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15" t="str">
+        <f>IFERROR(C15*D15,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="14" t="str">
-        <f t="shared" si="0"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[],2,FALSE),"")</f>
         <v/>
       </c>
+      <c r="C16" s="24" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="15" t="str">
+        <f>IFERROR(C16*D16,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14">
+      <c r="D17" s="33"/>
+      <c r="E17" s="15">
         <f>SUM(E11:E16)</f>
         <v>176700</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="15">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>17670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="21">
+        <f>SUM(E17:E18)</f>
+        <v>194370</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="5" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>100123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="19">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="E6" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <f>E19</f>
+        <v>194370</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A11,テーブル1[],2,FALSE),"")</f>
+        <v>折りたたみテーブル</v>
+      </c>
+      <c r="C11" s="24">
+        <f>IFERROR(VLOOKUP($A11,テーブル1[],3,FALSE),"")</f>
+        <v>15900</v>
+      </c>
+      <c r="D11" s="39">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" ref="E11:E14" si="0">IFERROR(C11*D11,"")</f>
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[],2,FALSE),"")</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="24">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[],3,FALSE),"")</f>
+        <v>19900</v>
+      </c>
+      <c r="D12" s="39">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[],2,FALSE),"")</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="24">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[],3,FALSE),"")</f>
+        <v>9800</v>
+      </c>
+      <c r="D13" s="39">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38">
+        <v>3002</v>
+      </c>
+      <c r="B14" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[],2,FALSE),"")</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="24">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[],3,FALSE),"")</f>
+        <v>26700</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="24" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="15" t="str">
+        <f>IFERROR(C15*D15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="24" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="15" t="str">
+        <f>IFERROR(C16*D16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15">
+        <f>SUM(E11:E16)</f>
+        <v>176700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="14">
         <v>0.1</v>
       </c>
-      <c r="E18" s="14">
-        <f>E17*0.1</f>
+      <c r="E18" s="15">
+        <f>ROUNDDOWN(E17*D18,0)</f>
         <v>17670</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="20">
+      <c r="D19" s="13"/>
+      <c r="E19" s="21">
         <f>SUM(E17:E18)</f>
         <v>194370</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
@@ -968,4 +1663,259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="5" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6">
+        <v>100123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="19">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="E6" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A11,テーブル1[],2,FALSE),"")</f>
+        <v>折りたたみテーブル</v>
+      </c>
+      <c r="C11" s="24">
+        <f>IFERROR(VLOOKUP($A11,テーブル1[],3,FALSE),"")</f>
+        <v>15900</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" ref="E11:E14" si="0">IFERROR(C11*D11,"")</f>
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[],2,FALSE),"")</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="24">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[],3,FALSE),"")</f>
+        <v>19900</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[],2,FALSE),"")</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="24">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[],3,FALSE),"")</f>
+        <v>9800</v>
+      </c>
+      <c r="D13" s="9">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>3002</v>
+      </c>
+      <c r="B14" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[],2,FALSE),"")</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="24">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[],3,FALSE),"")</f>
+        <v>26700</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="24" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15" t="str">
+        <f>IFERROR(C15*D15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="20" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="24" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="15" t="str">
+        <f>IFERROR(C16*D16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="15">
+        <f>SUM(E11:E16)</f>
+        <v>176700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="C18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="15">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>17670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="21">
+        <f>SUM(E17:E18)</f>
+        <v>194370</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>